--- a/data/var_enviro_selected.xlsx
+++ b/data/var_enviro_selected.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">label_var_enviro!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">label_var_enviro!$A$1:$AN$73</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="179">
   <si>
     <t>layer</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>distance aux zones humide</t>
-  </si>
-  <si>
-    <t>G24-25</t>
   </si>
   <si>
     <t>TO DO</t>
@@ -556,13 +553,13 @@
     <t>G102</t>
   </si>
   <si>
-    <t>G27-31</t>
-  </si>
-  <si>
-    <t>G18b</t>
-  </si>
-  <si>
-    <t>18a</t>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>G25</t>
   </si>
 </sst>
 </file>
@@ -725,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,12 +910,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1084,7 +1075,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1094,9 +1085,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1118,10 +1106,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1478,13 +1466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI73"/>
+  <dimension ref="A1:AH73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AC20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,19 +1481,19 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="7" max="16" width="6.5703125" style="8" customWidth="1"/>
+    <col min="7" max="16" width="6.5703125" style="7" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="6.5703125" style="16" customWidth="1"/>
+    <col min="18" max="19" width="6.5703125" style="15" customWidth="1"/>
     <col min="20" max="23" width="6.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="13" customWidth="1"/>
     <col min="25" max="25" width="6.5703125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" style="14" customWidth="1"/>
-    <col min="28" max="33" width="6.5703125" style="2" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="13" customWidth="1"/>
+    <col min="28" max="32" width="6.5703125" style="2" customWidth="1"/>
+    <col min="33" max="34" width="5.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1522,45 +1510,45 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1575,44 +1563,41 @@
       <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="13" t="s">
-        <v>179</v>
+      <c r="X1" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>177</v>
+      <c r="AG1" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1623,14 +1608,13 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1641,24 +1625,24 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -1673,18 +1657,17 @@
       <c r="AB3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1695,14 +1678,13 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1713,17 +1695,16 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1734,15 +1715,15 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -1757,12 +1738,11 @@
       <c r="Y6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1773,14 +1753,13 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1791,20 +1770,19 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="R8" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1815,31 +1793,28 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1850,23 +1825,22 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1877,30 +1851,29 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AI11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AH11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1911,10 +1884,10 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="P12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -1929,12 +1902,11 @@
       <c r="AB12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1945,12 +1917,12 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="15"/>
       <c r="U13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1960,37 +1932,36 @@
       <c r="AC13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -1999,12 +1970,11 @@
       <c r="W14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2015,21 +1985,20 @@
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="M15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="M15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2040,19 +2009,19 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="15" t="s">
         <v>32</v>
       </c>
       <c r="U16" s="2" t="s">
@@ -2061,21 +2030,20 @@
       <c r="V16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
+      <c r="Z16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2086,21 +2054,20 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="J17" s="15"/>
       <c r="Q17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="S17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2111,21 +2078,20 @@
         <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="J18" s="15"/>
       <c r="Q18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2136,18 +2102,17 @@
         <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="J19" s="15"/>
       <c r="Q19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2158,25 +2123,25 @@
         <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="R20" s="15" t="s">
         <v>32</v>
       </c>
       <c r="U20" s="2" t="s">
@@ -2188,23 +2153,20 @@
       <c r="Y20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2215,36 +2177,36 @@
         <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
@@ -2256,26 +2218,23 @@
       <c r="W21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2286,24 +2245,24 @@
         <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
@@ -2318,24 +2277,23 @@
       <c r="Y22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="8" t="s">
+      <c r="Z22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AB22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2346,19 +2304,19 @@
         <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="N23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="N23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
@@ -2373,23 +2331,20 @@
       <c r="Y23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2400,25 +2355,25 @@
         <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" s="15" t="s">
         <v>32</v>
       </c>
       <c r="W24" s="2" t="s">
@@ -2427,26 +2382,23 @@
       <c r="Y24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2457,43 +2409,42 @@
         <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="16"/>
-      <c r="M25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="M25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="R25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2510,13 +2461,13 @@
         <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="S26" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="S26" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
@@ -2528,26 +2479,23 @@
       <c r="Y26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="Z26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2558,23 +2506,22 @@
         <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="15"/>
       <c r="AC27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG27" s="6"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2585,27 +2532,26 @@
         <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="L28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="L28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2616,22 +2562,21 @@
         <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="12"/>
-      <c r="Z29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="11"/>
+      <c r="Z29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2642,18 +2587,17 @@
         <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J30" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="J30" s="15"/>
       <c r="Y30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2664,18 +2608,17 @@
         <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
-      </c>
-      <c r="J31" s="16"/>
-      <c r="R31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="R31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2686,18 +2629,17 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="J32" s="15"/>
       <c r="W32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2708,26 +2650,25 @@
         <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AI33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AH33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2738,52 +2679,49 @@
         <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6" t="s">
+      <c r="Z34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AH34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2794,18 +2732,17 @@
         <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
-      </c>
-      <c r="J35" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="J35" s="15"/>
       <c r="W35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2813,21 +2750,20 @@
         <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
         <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2844,18 +2780,17 @@
         <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2872,18 +2807,17 @@
         <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="16"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2894,15 +2828,14 @@
         <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
-      </c>
-      <c r="J39" s="16"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2919,18 +2852,17 @@
         <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
-      </c>
-      <c r="J40" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="J40" s="15"/>
       <c r="AC40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2941,15 +2873,14 @@
         <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2960,21 +2891,20 @@
         <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="AD42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG42" s="6"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="AD42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF42" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2985,19 +2915,18 @@
         <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG43" s="6"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF43" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3008,21 +2937,20 @@
         <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
-      </c>
-      <c r="J44" s="16"/>
-      <c r="AD44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG44" s="6"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="AD44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF44" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3033,21 +2961,20 @@
         <v>114</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
-      </c>
-      <c r="J45" s="16"/>
-      <c r="AD45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG45" s="6"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="AD45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF45" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3058,21 +2985,20 @@
         <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="AD46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG46" s="6"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="AD46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF46" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3083,17 +3009,16 @@
         <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG47" s="6"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3104,15 +3029,14 @@
         <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3123,15 +3047,14 @@
         <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J49" s="15"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3142,15 +3065,14 @@
         <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
-      </c>
-      <c r="J50" s="16"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3161,15 +3083,14 @@
         <v>122</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
-      </c>
-      <c r="J51" s="16"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3183,21 +3104,20 @@
         <v>124</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="AD52" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG52" s="6"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="AD52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF52" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3208,17 +3128,16 @@
         <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
-      </c>
-      <c r="J53" s="16"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG53" s="6"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J53" s="15"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3229,15 +3148,14 @@
         <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3254,41 +3172,40 @@
         <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
-      </c>
-      <c r="J55" s="16"/>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="6"/>
-    </row>
-    <row r="56" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J55" s="15"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+    </row>
+    <row r="56" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
         <v>149</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="F56" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="16"/>
-      <c r="M56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="M56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>32</v>
       </c>
       <c r="U56" s="2" t="s">
@@ -3297,56 +3214,55 @@
       <c r="Y56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z56" s="8" t="s">
+      <c r="Z56" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
         <v>152</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="F57" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P57" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="15"/>
+      <c r="K57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R57" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S57" s="16" t="s">
+      <c r="R57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T57" s="2" t="s">
@@ -3364,38 +3280,37 @@
       <c r="AB57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="6"/>
-      <c r="AG57" s="6"/>
-      <c r="AI57" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AH57" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
         <v>155</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="F58" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="16"/>
-      <c r="N58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="15"/>
+      <c r="N58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>32</v>
       </c>
       <c r="U58" s="2" t="s">
@@ -3413,44 +3328,43 @@
       <c r="AB58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI58" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
         <v>158</v>
       </c>
-      <c r="C59" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>173</v>
+      <c r="D59" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="L59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="L59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S59" s="16" t="s">
+      <c r="S59" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T59" s="2" t="s">
@@ -3465,109 +3379,107 @@
       <c r="AB59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-    </row>
-    <row r="60" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+    </row>
+    <row r="60" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
         <v>160</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F60" t="s">
-        <v>147</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="15" t="s">
         <v>32</v>
       </c>
       <c r="W60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z60" s="8" t="s">
+      <c r="Z60" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AC60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="6"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI60" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
         <v>163</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="F61" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S61" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" s="15" t="s">
         <v>32</v>
       </c>
       <c r="U61" s="2" t="s">
@@ -3579,53 +3491,52 @@
       <c r="W61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
+      <c r="Z61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI61" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s">
         <v>166</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="F62" t="s">
-        <v>147</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="16"/>
-      <c r="P62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="15"/>
+      <c r="P62" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R62" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" s="16" t="s">
+      <c r="R62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T62" s="2" t="s">
@@ -3646,49 +3557,48 @@
       <c r="AB62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI62" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="F63" t="s">
-        <v>147</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>32</v>
       </c>
       <c r="T63" s="2" t="s">
@@ -3700,23 +3610,22 @@
       <c r="Y63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z63" s="8" t="s">
+      <c r="Z63" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AB63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3729,16 +3638,16 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-      <c r="X64" s="14"/>
+      <c r="X64" s="13"/>
       <c r="Y64" s="3"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="14"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="13"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
@@ -3746,9 +3655,8 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-    </row>
-    <row r="65" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>130</v>
       </c>
@@ -3769,16 +3677,16 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-      <c r="X65" s="14"/>
+      <c r="X65" s="13"/>
       <c r="Y65" s="3"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="14"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="13"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
@@ -3786,9 +3694,8 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
-    </row>
-    <row r="66" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>132</v>
       </c>
@@ -3803,16 +3710,16 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-      <c r="X66" s="14"/>
+      <c r="X66" s="13"/>
       <c r="Y66" s="3"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="14"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="13"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
@@ -3820,9 +3727,8 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
-    </row>
-    <row r="67" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
@@ -3837,16 +3743,16 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-      <c r="X67" s="14"/>
+      <c r="X67" s="13"/>
       <c r="Y67" s="3"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="14"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="13"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
@@ -3854,9 +3760,8 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
-    </row>
-    <row r="68" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
@@ -3871,16 +3776,16 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-      <c r="X68" s="14"/>
+      <c r="X68" s="13"/>
       <c r="Y68" s="3"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="14"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="13"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
@@ -3888,14 +3793,13 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-    </row>
-    <row r="69" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -3908,16 +3812,16 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-      <c r="X69" s="14"/>
+      <c r="X69" s="13"/>
       <c r="Y69" s="3"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="14"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="13"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
@@ -3925,14 +3829,13 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
-    </row>
-    <row r="70" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -3945,16 +3848,16 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-      <c r="X70" s="14"/>
+      <c r="X70" s="13"/>
       <c r="Y70" s="3"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="14"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="13"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
@@ -3962,9 +3865,8 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
-      <c r="AI70" s="3"/>
-    </row>
-    <row r="71" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
@@ -3982,16 +3884,16 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="X71" s="14"/>
+      <c r="X71" s="13"/>
       <c r="Y71" s="3"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="14"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="13"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
@@ -3999,9 +3901,8 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
-      <c r="AI71" s="3"/>
-    </row>
-    <row r="72" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>137</v>
       </c>
@@ -4019,16 +3920,16 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-      <c r="X72" s="14"/>
+      <c r="X72" s="13"/>
       <c r="Y72" s="3"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="14"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="13"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
@@ -4036,11 +3937,10 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-    </row>
-    <row r="73" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -4053,16 +3953,16 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-      <c r="X73" s="14"/>
+      <c r="X73" s="13"/>
       <c r="Y73" s="3"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="14"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="13"/>
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
@@ -4070,10 +3970,9 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73"/>
+  <autoFilter ref="A1:AN73"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4095,63 +3994,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
